--- a/final_data_pipeline/output/325211longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/325211longform_elec_options_nowhp.xlsx
@@ -836,7 +836,7 @@
         <v>106</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J3">
         <v>8000</v>
@@ -851,10 +851,10 @@
         <v>5238929.691068697</v>
       </c>
       <c r="N3">
-        <v>1.741590909090909</v>
+        <v>1.911855479578636</v>
       </c>
       <c r="O3">
-        <v>1.89075</v>
+        <v>2.09608909874769</v>
       </c>
       <c r="P3">
         <v>654.8662113835871</v>
@@ -1354,7 +1354,7 @@
         <v>107</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J13">
         <v>8000</v>
@@ -1401,7 +1401,7 @@
         <v>106</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J14">
         <v>8000</v>
@@ -1416,10 +1416,10 @@
         <v>615283.5854615972</v>
       </c>
       <c r="N14">
-        <v>1.741590909090909</v>
+        <v>1.940636870984383</v>
       </c>
       <c r="O14">
-        <v>1.89075</v>
+        <v>2.131200751448103</v>
       </c>
       <c r="P14">
         <v>76.91044818269965</v>
@@ -1560,7 +1560,7 @@
         <v>106</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="J17">
         <v>8000</v>
@@ -1575,10 +1575,10 @@
         <v>520144.2167393085</v>
       </c>
       <c r="N17">
-        <v>1.741590909090909</v>
+        <v>1.902494195535734</v>
       </c>
       <c r="O17">
-        <v>1.89075</v>
+        <v>2.084694111942012</v>
       </c>
       <c r="P17">
         <v>65.01802709241356</v>
@@ -1613,7 +1613,7 @@
         <v>106</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J18">
         <v>8000</v>
@@ -1628,10 +1628,10 @@
         <v>305739.6316466416</v>
       </c>
       <c r="N18">
-        <v>1.741590909090909</v>
+        <v>1.837513876759573</v>
       </c>
       <c r="O18">
-        <v>1.89075</v>
+        <v>2.005936573945218</v>
       </c>
       <c r="P18">
         <v>38.2174539558302</v>
@@ -1772,7 +1772,7 @@
         <v>106</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="J21">
         <v>8000</v>
@@ -1787,10 +1787,10 @@
         <v>2811791.13048226</v>
       </c>
       <c r="N21">
-        <v>1.741590909090909</v>
+        <v>1.920016703786191</v>
       </c>
       <c r="O21">
-        <v>1.89075</v>
+        <v>2.106033415841584</v>
       </c>
       <c r="P21">
         <v>351.4738913102825</v>
@@ -1825,7 +1825,7 @@
         <v>106</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J22">
         <v>8000</v>
@@ -1840,10 +1840,10 @@
         <v>601898.1634017075</v>
       </c>
       <c r="N22">
-        <v>1.741590909090909</v>
+        <v>1.803186500133452</v>
       </c>
       <c r="O22">
-        <v>1.89075</v>
+        <v>1.964569140204562</v>
       </c>
       <c r="P22">
         <v>75.23727042521344</v>
@@ -1978,7 +1978,7 @@
         <v>106</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J25">
         <v>8000</v>
@@ -1993,10 +1993,10 @@
         <v>345837.0124918807</v>
       </c>
       <c r="N25">
-        <v>1.741590909090909</v>
+        <v>1.789400236291612</v>
       </c>
       <c r="O25">
-        <v>1.89075</v>
+        <v>1.948001533154466</v>
       </c>
       <c r="P25">
         <v>43.22962656148508</v>
@@ -2031,7 +2031,7 @@
         <v>108</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J26">
         <v>8000</v>
@@ -2284,7 +2284,7 @@
         <v>106</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="J31">
         <v>8000</v>
@@ -2299,10 +2299,10 @@
         <v>850414.8584661442</v>
       </c>
       <c r="N31">
-        <v>1.741590909090909</v>
+        <v>1.672941176470588</v>
       </c>
       <c r="O31">
-        <v>1.89075</v>
+        <v>1.809089700996678</v>
       </c>
       <c r="P31">
         <v>106.301857308268</v>
@@ -2337,7 +2337,7 @@
         <v>106</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J32">
         <v>8000</v>
@@ -2352,10 +2352,10 @@
         <v>276974.460834612</v>
       </c>
       <c r="N32">
-        <v>1.741590909090909</v>
+        <v>1.940636870984383</v>
       </c>
       <c r="O32">
-        <v>1.89075</v>
+        <v>2.131200751448103</v>
       </c>
       <c r="P32">
         <v>34.62180760432651</v>
@@ -2549,7 +2549,7 @@
         <v>106</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J36">
         <v>8000</v>
@@ -2564,10 +2564,10 @@
         <v>333173.0506735449</v>
       </c>
       <c r="N36">
-        <v>1.741590909090909</v>
+        <v>1.620655622136059</v>
       </c>
       <c r="O36">
-        <v>1.89075</v>
+        <v>1.747323835194455</v>
       </c>
       <c r="P36">
         <v>41.64663133419311</v>
@@ -2602,7 +2602,7 @@
         <v>106</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="J37">
         <v>8000</v>
@@ -2617,10 +2617,10 @@
         <v>847644.9933633942</v>
       </c>
       <c r="N37">
-        <v>1.741590909090909</v>
+        <v>1.672941176470588</v>
       </c>
       <c r="O37">
-        <v>1.89075</v>
+        <v>1.809089700996678</v>
       </c>
       <c r="P37">
         <v>105.9556241704243</v>
@@ -2814,7 +2814,7 @@
         <v>106</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="J41">
         <v>8000</v>
@@ -2829,10 +2829,10 @@
         <v>526489.1191663315</v>
       </c>
       <c r="N41">
-        <v>1.741590909090909</v>
+        <v>1.902494195535734</v>
       </c>
       <c r="O41">
-        <v>1.89075</v>
+        <v>2.084694111942012</v>
       </c>
       <c r="P41">
         <v>65.81113989579144</v>
@@ -2920,7 +2920,7 @@
         <v>106</v>
       </c>
       <c r="I43">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="J43">
         <v>8000</v>
@@ -2935,10 +2935,10 @@
         <v>549800.0296599994</v>
       </c>
       <c r="N43">
-        <v>1.741590909090909</v>
+        <v>1.784922174701128</v>
       </c>
       <c r="O43">
-        <v>1.89075</v>
+        <v>1.942625691911729</v>
       </c>
       <c r="P43">
         <v>68.72500370749992</v>
@@ -3226,7 +3226,7 @@
         <v>106</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J49">
         <v>8000</v>
@@ -3241,10 +3241,10 @@
         <v>289694.1513146128</v>
       </c>
       <c r="N49">
-        <v>1.741590909090909</v>
+        <v>1.940636870984383</v>
       </c>
       <c r="O49">
-        <v>1.89075</v>
+        <v>2.131200751448103</v>
       </c>
       <c r="P49">
         <v>36.2117689143266</v>
@@ -3385,7 +3385,7 @@
         <v>106</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="J52">
         <v>8000</v>
@@ -3400,10 +3400,10 @@
         <v>979239.9438947932</v>
       </c>
       <c r="N52">
-        <v>1.741590909090909</v>
+        <v>1.80090088129692</v>
       </c>
       <c r="O52">
-        <v>1.89075</v>
+        <v>1.961820583643568</v>
       </c>
       <c r="P52">
         <v>122.4049929868492</v>
@@ -3544,7 +3544,7 @@
         <v>106</v>
       </c>
       <c r="I55">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="J55">
         <v>8000</v>
@@ -3559,10 +3559,10 @@
         <v>504275.1037852188</v>
       </c>
       <c r="N55">
-        <v>1.741590909090909</v>
+        <v>1.784922174701128</v>
       </c>
       <c r="O55">
-        <v>1.89075</v>
+        <v>1.942625691911729</v>
       </c>
       <c r="P55">
         <v>63.03438797315236</v>
@@ -3650,7 +3650,7 @@
         <v>106</v>
       </c>
       <c r="I57">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="J57">
         <v>8000</v>
@@ -3665,10 +3665,10 @@
         <v>673940.0276347516</v>
       </c>
       <c r="N57">
-        <v>1.741590909090909</v>
+        <v>1.784922174701128</v>
       </c>
       <c r="O57">
-        <v>1.89075</v>
+        <v>1.942625691911729</v>
       </c>
       <c r="P57">
         <v>84.24250345434396</v>
@@ -3809,7 +3809,7 @@
         <v>106</v>
       </c>
       <c r="I60">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="J60">
         <v>8000</v>
@@ -3824,10 +3824,10 @@
         <v>535129.202006985</v>
       </c>
       <c r="N60">
-        <v>1.741590909090909</v>
+        <v>1.909121107266436</v>
       </c>
       <c r="O60">
-        <v>1.89075</v>
+        <v>2.092759415833974</v>
       </c>
       <c r="P60">
         <v>66.89115025087312</v>
@@ -4221,7 +4221,7 @@
         <v>106</v>
       </c>
       <c r="I68">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="J68">
         <v>8000</v>
@@ -4236,10 +4236,10 @@
         <v>407670.2218791479</v>
       </c>
       <c r="N68">
-        <v>1.741590909090909</v>
+        <v>1.902494195535734</v>
       </c>
       <c r="O68">
-        <v>1.89075</v>
+        <v>2.084694111942012</v>
       </c>
       <c r="P68">
         <v>50.95877773489349</v>
@@ -4668,7 +4668,7 @@
         <v>106</v>
       </c>
       <c r="I77">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J77">
         <v>8000</v>
@@ -4683,10 +4683,10 @@
         <v>8400184.507055514</v>
       </c>
       <c r="N77">
-        <v>1.741590909090909</v>
+        <v>1.803394296576035</v>
       </c>
       <c r="O77">
-        <v>1.89075</v>
+        <v>1.964819060413116</v>
       </c>
       <c r="P77">
         <v>1050.023063381939</v>
@@ -4827,7 +4827,7 @@
         <v>106</v>
       </c>
       <c r="I80">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J80">
         <v>8000</v>
@@ -4842,10 +4842,10 @@
         <v>1185598.65949976</v>
       </c>
       <c r="N80">
-        <v>1.741590909090909</v>
+        <v>1.940636870984383</v>
       </c>
       <c r="O80">
-        <v>1.89075</v>
+        <v>2.131200751448103</v>
       </c>
       <c r="P80">
         <v>148.19983243747</v>
@@ -4880,7 +4880,7 @@
         <v>106</v>
       </c>
       <c r="I81">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J81">
         <v>8000</v>
@@ -4895,10 +4895,10 @@
         <v>374844.5339784805</v>
       </c>
       <c r="N81">
-        <v>1.741590909090909</v>
+        <v>1.803186500133452</v>
       </c>
       <c r="O81">
-        <v>1.89075</v>
+        <v>1.964569140204562</v>
       </c>
       <c r="P81">
         <v>46.85556674731006</v>
@@ -4933,7 +4933,7 @@
         <v>108</v>
       </c>
       <c r="I82">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J82">
         <v>8000</v>
